--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,11 +255,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Electronic Product Information composition</t>
-  </si>
-  <si>
-    <t>Electronic Product Information composition.
-A composition is a set of source of regulated and scientifically validated information that assists healthcare professionals in prescribing and dispensing the medicine and informs consumers about its safe and effective use.While a Composition defines the structure and content of the ePI's narrative text, it does not contain the full content of an ePI document. The Bundle, of which the Composition is the first resource contained, is the container for the full  content of an ePI.</t>
+    <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
+  </si>
+  <si>
+    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
@@ -1853,7 +1852,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Composition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Composition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -758,7 +758,7 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/epiType</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/epiType</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -806,7 +806,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -1327,7 +1327,7 @@
     <t>Provides computable standardized labels to topics within the document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/sectionCode</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/sectionCode</t>
   </si>
   <si>
     <t>Composition.section.author</t>
@@ -1866,7 +1866,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -463,7 +463,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -567,7 +567,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -641,7 +641,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-ballot/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -731,7 +731,7 @@
     <t>The workflow/clinical status of the composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -887,7 +887,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed. This means that the date on an amended document is the date of the amendment, not the date of original authorship.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of authoring this version of the Composition. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/5.0.0-ballot/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of authoring this version of the Composition. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/5.0.0-snapshot3/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1162,7 +1162,8 @@
     <t>A crossreference from this ePI's composition to another related Composition or ePI document.</t>
   </si>
   <si>
-    <t>To reference (using relatesTo) a Bundle of type "document" or another Composition where you only have the identifier, use a resourceReference with an identifier.\nHere is an example of using relatesTo to reference another Bundle of type "document" or Composition where you only have the identifier:
+    <t>To reference (using relatesTo) a Bundle of type "document" or another Composition where you only have the identifier, use a resourceReference with an identifier.
+Here is an example of using relatesTo to reference another Bundle of type "document" or Composition where you only have the identifier:
 ```
 &lt;relatesTo  &gt;
     &lt;type value="replaces" /&gt;
@@ -1398,7 +1399,7 @@
     <t>The processing mode that applies to this section.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A set of resources composed into a single coherent clinical statement with clinical attestation</t>
@@ -2041,16 +2045,16 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2115,27 +2119,27 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2146,7 +2150,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2155,19 +2159,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2217,13 +2221,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2249,10 +2253,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2263,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2272,16 +2276,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2332,19 +2336,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2364,10 +2368,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2378,28 +2382,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2449,19 +2453,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2481,10 +2485,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2495,7 +2499,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2507,16 +2511,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2542,13 +2546,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2566,19 +2570,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2598,21 +2602,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2624,16 +2628,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2683,25 +2687,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2715,14 +2719,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2741,16 +2745,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2800,7 +2804,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2818,7 +2822,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2832,14 +2836,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2858,16 +2862,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2917,7 +2921,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2929,13 +2933,13 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2949,14 +2953,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2969,25 +2973,25 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3036,7 +3040,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3048,13 +3052,13 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3068,10 +3072,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3082,7 +3086,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -3091,22 +3095,22 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3155,19 +3159,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3182,15 +3186,15 @@
         <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3198,7 +3202,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>80</v>
@@ -3210,19 +3214,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3272,7 +3276,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3284,30 +3288,30 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3318,7 +3322,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3330,13 +3334,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3387,13 +3391,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3405,7 +3409,7 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3419,14 +3423,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3445,16 +3449,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3492,19 +3496,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3516,13 +3520,13 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3536,10 +3540,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3550,31 +3554,31 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3599,11 +3603,11 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3621,25 +3625,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3653,10 +3657,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3667,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3676,22 +3680,22 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3716,11 +3720,11 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3738,25 +3742,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3770,10 +3774,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3781,10 +3785,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3793,22 +3797,22 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3821,7 +3825,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3857,25 +3861,25 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3889,10 +3893,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3900,10 +3904,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3912,19 +3916,19 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3938,7 +3942,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -3974,25 +3978,25 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -4006,10 +4010,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4020,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4029,16 +4033,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4089,25 +4093,25 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
@@ -4121,10 +4125,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4135,7 +4139,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4144,19 +4148,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4206,25 +4210,25 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4238,10 +4242,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4252,7 +4256,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4261,19 +4265,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4323,19 +4327,19 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4344,21 +4348,21 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4366,34 +4370,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4418,13 +4422,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4442,42 +4446,42 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4485,10 +4489,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4497,22 +4501,22 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4537,11 +4541,11 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4559,42 +4563,42 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4614,20 +4618,20 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4652,13 +4656,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4676,7 +4680,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4688,30 +4692,30 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4719,7 +4723,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>80</v>
@@ -4731,22 +4735,22 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4795,7 +4799,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4807,30 +4811,30 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4841,7 +4845,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4850,20 +4854,20 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4912,42 +4916,42 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4955,10 +4959,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4967,22 +4971,22 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5031,42 +5035,42 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5086,22 +5090,22 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5150,7 +5154,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5162,7 +5166,7 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -5182,10 +5186,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5193,7 +5197,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>80</v>
@@ -5205,20 +5209,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5267,10 +5271,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>80</v>
@@ -5279,30 +5283,30 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5313,7 +5317,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5322,22 +5326,22 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5386,19 +5390,19 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -5418,10 +5422,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5429,10 +5433,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5441,19 +5445,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5503,31 +5507,31 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5535,10 +5539,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5561,16 +5565,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5620,7 +5624,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5632,7 +5636,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5652,10 +5656,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5678,19 +5682,19 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5739,7 +5743,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5751,19 +5755,19 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5771,10 +5775,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5785,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5797,13 +5801,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5854,13 +5858,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5872,7 +5876,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5886,14 +5890,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5912,16 +5916,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5971,7 +5975,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5983,13 +5987,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -6003,14 +6007,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6023,25 +6027,25 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6090,7 +6094,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6102,13 +6106,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6122,10 +6126,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6133,10 +6137,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6148,17 +6152,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6183,13 +6187,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6207,28 +6211,28 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6239,10 +6243,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6253,7 +6257,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6265,17 +6269,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6324,28 +6328,28 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6356,10 +6360,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6370,7 +6374,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6382,17 +6386,17 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6441,42 +6445,42 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6487,7 +6491,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6496,22 +6500,22 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6560,31 +6564,31 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6592,10 +6596,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6618,16 +6622,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6677,7 +6681,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6689,19 +6693,19 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6709,10 +6713,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6732,22 +6736,22 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6796,7 +6800,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6808,19 +6812,19 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6828,10 +6832,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6842,7 +6846,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6854,13 +6858,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6911,13 +6915,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -6929,7 +6933,7 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6943,14 +6947,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6969,16 +6973,16 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7028,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7040,13 +7044,13 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -7060,14 +7064,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7080,25 +7084,25 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7147,7 +7151,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7159,13 +7163,13 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7179,10 +7183,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7202,19 +7206,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7240,13 +7244,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7264,7 +7268,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7276,19 +7280,19 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7296,10 +7300,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7310,7 +7314,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7319,16 +7323,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7379,31 +7383,31 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7411,10 +7415,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7434,16 +7438,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7494,7 +7498,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7506,16 +7510,16 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7526,10 +7530,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7537,7 +7541,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>80</v>
@@ -7552,13 +7556,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7609,7 +7613,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7621,16 +7625,16 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7641,10 +7645,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7655,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7667,13 +7671,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7724,13 +7728,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7742,7 +7746,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7756,14 +7760,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7782,16 +7786,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7841,7 +7845,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7853,13 +7857,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7873,14 +7877,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7893,25 +7897,25 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7960,7 +7964,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7972,13 +7976,13 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7992,21 +7996,21 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8018,19 +8022,19 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8079,28 +8083,28 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8111,10 +8115,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8122,10 +8126,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8137,19 +8141,19 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8174,11 +8178,11 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8196,28 +8200,28 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8228,10 +8232,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8254,17 +8258,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8313,7 +8317,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8325,30 +8329,30 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8359,7 +8363,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8371,16 +8375,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8430,19 +8434,19 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8451,7 +8455,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8462,10 +8466,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8476,7 +8480,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8488,16 +8492,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8547,28 +8551,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8579,10 +8583,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8593,7 +8597,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8605,19 +8609,19 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8642,13 +8646,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8666,42 +8670,42 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8712,7 +8716,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8724,19 +8728,19 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8761,13 +8765,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8785,28 +8789,28 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8817,10 +8821,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8843,16 +8847,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8902,7 +8906,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8911,19 +8915,19 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8934,10 +8938,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8948,7 +8952,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8960,19 +8964,19 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8997,13 +9001,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9021,28 +9025,28 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9053,10 +9057,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9079,16 +9083,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9138,7 +9142,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9147,19 +9151,19 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9170,10 +9174,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9184,7 +9188,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9196,13 +9200,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9253,13 +9257,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9271,7 +9275,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -9285,14 +9289,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9311,16 +9315,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9370,7 +9374,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9382,13 +9386,13 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -9402,14 +9406,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9422,25 +9426,25 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9489,7 +9493,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9501,13 +9505,13 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9521,21 +9525,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9547,19 +9551,19 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9608,28 +9612,28 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9640,10 +9644,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9651,10 +9655,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9666,19 +9670,19 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
@@ -9703,11 +9707,11 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9725,28 +9729,28 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9757,10 +9761,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9783,17 +9787,17 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9842,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9854,30 +9858,30 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9888,7 +9892,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -9900,16 +9904,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9959,19 +9963,19 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9980,7 +9984,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9991,10 +9995,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10005,7 +10009,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10017,16 +10021,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10076,28 +10080,28 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10108,10 +10112,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10122,7 +10126,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10134,19 +10138,19 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10171,13 +10175,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10195,42 +10199,42 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10241,7 +10245,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10253,19 +10257,19 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10290,13 +10294,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10314,28 +10318,28 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10346,10 +10350,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10372,16 +10376,16 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10431,7 +10435,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10440,19 +10444,19 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10463,10 +10467,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10477,7 +10481,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10489,19 +10493,19 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10526,13 +10530,13 @@
         <v>78</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>78</v>
@@ -10550,28 +10554,28 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10582,10 +10586,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10608,16 +10612,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10667,7 +10671,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10676,19 +10680,19 @@
         <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-snapshot3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -237,6 +237,9 @@
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
@@ -244,9 +247,6 @@
   </si>
   <si>
     <t>Mapping: FHIR DocumentReference</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -274,16 +274,16 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
+    <t>infrastructure.documents</t>
+  </si>
+  <si>
+    <t>Entity, Role, or Act,Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
   </si>
   <si>
     <t>ClinicalDocument</t>
   </si>
   <si>
     <t>when described by DocumentReference</t>
-  </si>
-  <si>
-    <t>infrastructure.documents</t>
   </si>
   <si>
     <t>Composition.id</t>
@@ -344,7 +344,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -366,13 +366,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>IETF language tag</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -401,6 +401,10 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
     <t>Act.text?</t>
   </si>
   <si>
@@ -427,6 +431,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -444,7 +452,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -463,11 +471,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -516,7 +524,7 @@
     <t>.setId</t>
   </si>
   <si>
-    <t>DocumentReference.masterIdentifier</t>
+    <t>DocumentReference.identifier</t>
   </si>
   <si>
     <t>Composition.identifier.id</t>
@@ -531,13 +539,17 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
     <t>Composition.identifier.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -568,10 +580,10 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot3</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -602,6 +614,9 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
@@ -614,7 +629,7 @@
     <t>The namespace for the identifier value</t>
   </si>
   <si>
-    <t>Establishes the namespace for the value - that is, a absolute URL that describes a set values that are unique.</t>
+    <t>Establishes the namespace for the value - that is, an absolute URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -645,13 +660,17 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/5.0.0-snapshot3/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [http://hl7.org/fhir/StructureDefinition/rendered-value](http://hl7.org/fhir/extensions/StructureDefinition-rendered-value.html)). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ident-1
+</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -710,10 +729,13 @@
     <t>While each resource, including the composition itself, has its own version identifier, this is a formal identifier for the logical version of the Composition as a whole. It would remain constant if the resources were moved to a new server, and all got new individual resource versions, for example.</t>
   </si>
   <si>
+    <t>FiveWs.version</t>
+  </si>
+  <si>
     <t>.versionNumber</t>
   </si>
   <si>
-    <t>FiveWs.version</t>
+    <t>DocumentReference.version</t>
   </si>
   <si>
     <t>Composition.status</t>
@@ -735,19 +757,19 @@
     <t>The workflow/clinical status of the composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|5.0.0-snapshot3</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|5.0.0</t>
   </si>
   <si>
     <t>Event.status</t>
   </si>
   <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
     <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
   </si>
   <si>
-    <t>DocumentReference.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
+    <t>DocumentReference.docStatus</t>
   </si>
   <si>
     <t>Composition.type</t>
@@ -771,6 +793,9 @@
     <t>Event.code</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>./code</t>
   </si>
   <si>
@@ -778,9 +803,6 @@
   </si>
   <si>
     <t>DocumentReference.type</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Composition.category</t>
@@ -832,6 +854,9 @@
     <t>Event.subject</t>
   </si>
   <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
     <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
   </si>
   <si>
@@ -839,9 +864,6 @@
   </si>
   <si>
     <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>Composition.encounter</t>
@@ -863,16 +885,16 @@
     <t>Event.encounter</t>
   </si>
   <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
     <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
   </si>
   <si>
     <t>.componentOf.encompassingEncounter</t>
   </si>
   <si>
-    <t>DocumentReference.context.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
+    <t>DocumentReference.context</t>
   </si>
   <si>
     <t>Composition.date</t>
@@ -891,22 +913,22 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed. This means that the date on an amended document is the date of the amendment, not the date of original authorship.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of authoring this version of the Composition. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/5.0.0-snapshot3/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of authoring this version of the Composition. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R5/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
     <t>.effectiveTime[type="TS"]</t>
   </si>
   <si>
     <t>.effectiveTime</t>
   </si>
   <si>
-    <t>DocumentReference.content.attachment.date, DocumentReference.created</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
+    <t>DocumentReference.content.attachment.date, DocumentReference.date</t>
   </si>
   <si>
     <t>Composition.useContext</t>
@@ -947,16 +969,16 @@
     <t>Event.performer</t>
   </si>
   <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
     <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
   </si>
   <si>
     <t>.author.assignedAuthor</t>
   </si>
   <si>
-    <t>DocumentReference.agent</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
+    <t>DocumentReference.author</t>
   </si>
   <si>
     <t>Composition.name</t>
@@ -1036,7 +1058,7 @@
     <t>.authenticator/.legalAuthenticator</t>
   </si>
   <si>
-    <t>DocumentReference.authenticator</t>
+    <t>DocumentReference.attester</t>
   </si>
   <si>
     <t>Composition.attester.id</t>
@@ -1055,7 +1077,7 @@
     <t>Extensions that cannot be ignored even if unrecognized</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1074,6 +1096,9 @@
     <t>Indicates the level of authority of the attestation.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>The way in which a person authenticated a composition.</t>
   </si>
   <si>
@@ -1086,6 +1111,9 @@
     <t>implied by .authenticator/.legalAuthenticator</t>
   </si>
   <si>
+    <t>DocumentReference.attester.mode</t>
+  </si>
+  <si>
     <t>Composition.attester.time</t>
   </si>
   <si>
@@ -1102,6 +1130,9 @@
   </si>
   <si>
     <t>.authenticator.time</t>
+  </si>
+  <si>
+    <t>DocumentReference.attester.time</t>
   </si>
   <si>
     <t>Composition.attester.party</t>
@@ -1120,13 +1151,16 @@
     <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
   </si>
   <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
     <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
   </si>
   <si>
     <t>.authenticator.assignedEnttty</t>
   </si>
   <si>
-    <t>FiveWs.witness</t>
+    <t>DocumentReference.attester.party</t>
   </si>
   <si>
     <t>Composition.custodian</t>
@@ -1166,18 +1200,19 @@
     <t>A crossreference from this ePI's composition to another related Composition or ePI document.</t>
   </si>
   <si>
-    <t>To reference (using relatesTo) a Bundle of type "document" or another Composition where you only have the identifier, use a resourceReference with an identifier.
+    <t>To reference (using relatesTo) a Bundle of type "document" or another Composition where you only have the identifier, use a resourceReference with an identifier.\
+When a Composition is an alternate representation of another type of document e.g. CDA, the other document could be referenced in a DocumentReference resource.  
 Here is an example of using relatesTo to reference another Bundle of type "document" or Composition where you only have the identifier:
 ```
-&lt;relatesTo  &gt;
-    &lt;type value="replaces" /&gt;
-&lt;resourceReference&gt;
-&lt;identifier&gt;
-&lt;system value="..." /&gt;
-&lt;value value="..." /&gt;
-&lt;/identifier&gt;
-&lt;/resourceReference&gt;
-&lt;/relatesTo&gt;
+"relatesTo": [{
+  "type": "replaces",
+  "resourceReference": {
+    "identifier": { 
+      "system": "...", 
+      "value": "..."
+    }
+  } 
+}]
 ```</t>
   </si>
   <si>
@@ -1211,149 +1246,141 @@
     <t>.documentationOf.serviceEvent</t>
   </si>
   <si>
+    <t>Composition.event.id</t>
+  </si>
+  <si>
+    <t>Composition.event.extension</t>
+  </si>
+  <si>
+    <t>Composition.event.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.event.period</t>
+  </si>
+  <si>
+    <t>The period covered by the documentation</t>
+  </si>
+  <si>
+    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
+  </si>
+  <si>
+    <t>DocumentReference.period</t>
+  </si>
+  <si>
+    <t>Composition.event.detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(Resource)
+</t>
+  </si>
+  <si>
+    <t>The event(s) being documented, as code(s), reference(s), or both</t>
+  </si>
+  <si>
+    <t>Represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which case the procedure being documented is necessarily a "History and Physical" act. The events may be included as a code or as a reference to an other resource.</t>
+  </si>
+  <si>
+    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more events are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts being documented.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].target</t>
+  </si>
+  <si>
     <t>DocumentReference.event</t>
   </si>
   <si>
-    <t>Composition.event.id</t>
-  </si>
-  <si>
-    <t>Composition.event.extension</t>
-  </si>
-  <si>
-    <t>Composition.event.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.event.code</t>
-  </si>
-  <si>
-    <t>Code(s) that apply to the event being documented</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
-  </si>
-  <si>
-    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts being documented.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
-  </si>
-  <si>
-    <t>DocumentReference.event.code</t>
-  </si>
-  <si>
-    <t>Composition.event.period</t>
-  </si>
-  <si>
-    <t>The period covered by the documentation</t>
-  </si>
-  <si>
-    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
-  </si>
-  <si>
-    <t>DocumentReference.event.period</t>
-  </si>
-  <si>
-    <t>Composition.event.detail</t>
+    <t>Composition.section</t>
+  </si>
+  <si>
+    <t>Level 1 section heading for the whole ePI</t>
+  </si>
+  <si>
+    <t>This is the root or level 1 section heading in the ePI. All other section headings are sub-sections, or children, of this section heading</t>
+  </si>
+  <si>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
+  </si>
+  <si>
+    <t>.component.structuredBody.component.section</t>
+  </si>
+  <si>
+    <t>Composition.section.id</t>
+  </si>
+  <si>
+    <t>Composition.section.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section.title</t>
+  </si>
+  <si>
+    <t>header
+labelcaption</t>
+  </si>
+  <si>
+    <t>Label for section (e.g. for ToC)</t>
+  </si>
+  <si>
+    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
+  </si>
+  <si>
+    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
+  </si>
+  <si>
+    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized.</t>
+  </si>
+  <si>
+    <t>Composition.section.code</t>
+  </si>
+  <si>
+    <t>unique identifier for this section.</t>
+  </si>
+  <si>
+    <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
+  </si>
+  <si>
+    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   
+If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
+  </si>
+  <si>
+    <t>Provides computable standardized labels to topics within the document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/sectionCode</t>
+  </si>
+  <si>
+    <t>Composition.section.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the section</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in this section, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Composition.section.focus</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
-    <t>The event(s) being documented</t>
-  </si>
-  <si>
-    <t>The description and/or reference of the event(s) being documented. For example, this could be used to document such a colonoscopy or an appendectomy.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].target</t>
-  </si>
-  <si>
-    <t>Composition.section</t>
-  </si>
-  <si>
-    <t>Level 1 section heading for the whole ePI</t>
-  </si>
-  <si>
-    <t>This is the root or level 1 section heading in the ePI. All other section headings are sub-sections, or children, of this section heading</t>
-  </si>
-  <si>
-    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
-cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
-  </si>
-  <si>
-    <t>.component.structuredBody.component.section</t>
-  </si>
-  <si>
-    <t>Composition.section.id</t>
-  </si>
-  <si>
-    <t>Composition.section.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.section.title</t>
-  </si>
-  <si>
-    <t>header
-labelcaption</t>
-  </si>
-  <si>
-    <t>Label for section (e.g. for ToC)</t>
-  </si>
-  <si>
-    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
-  </si>
-  <si>
-    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
-  </si>
-  <si>
-    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized.</t>
-  </si>
-  <si>
-    <t>Composition.section.code</t>
-  </si>
-  <si>
-    <t>unique identifier for this section.</t>
-  </si>
-  <si>
-    <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
-  </si>
-  <si>
-    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   
-If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
-  </si>
-  <si>
-    <t>Provides computable standardized labels to topics within the document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/sectionCode</t>
-  </si>
-  <si>
-    <t>Composition.section.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the section</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in this section, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Composition.section.focus</t>
-  </si>
-  <si>
     <t>Who/what the section is about, when it is not about the subject of composition</t>
   </si>
   <si>
@@ -1385,30 +1412,6 @@
     <t>.text</t>
   </si>
   <si>
-    <t>Composition.section.mode</t>
-  </si>
-  <si>
-    <t>working | snapshot | changes</t>
-  </si>
-  <si>
-    <t>How the entry list was prepared - whether it is a working list that is suitable for being maintained on an ongoing basis, or if it represents a snapshot of a list of items from another source, or whether it is a prepared list where items may be marked as added, modified or deleted.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because a change list must not be misunderstood as a complete list.</t>
-  </si>
-  <si>
-    <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them.</t>
-  </si>
-  <si>
-    <t>The processing mode that applies to this section.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|5.0.0-snapshot3</t>
-  </si>
-  <si>
-    <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
-  </si>
-  <si>
     <t>Composition.section.orderedBy</t>
   </si>
   <si>
@@ -1443,39 +1446,43 @@
   </si>
   <si>
     <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
+  </si>
+  <si>
+    <t>cmp-1
+cmp-2</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>.entry</t>
+  </si>
+  <si>
+    <t>Composition.section.emptyReason</t>
+  </si>
+  <si>
+    <t>Reason the section is empty.</t>
+  </si>
+  <si>
+    <t>If the section is empty, why the list is empty. An empty section typically has some text explaining the empty reason.</t>
+  </si>
+  <si>
+    <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
+  </si>
+  <si>
+    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists.</t>
+  </si>
+  <si>
+    <t>If a section is empty, why it is empty.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
   </si>
   <si>
     <t xml:space="preserve">cmp-2
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>.entry</t>
-  </si>
-  <si>
-    <t>Composition.section.emptyReason</t>
-  </si>
-  <si>
-    <t>Reason the section is empty.</t>
-  </si>
-  <si>
-    <t>If the section is empty, why the list is empty. An empty section typically has some text explaining the empty reason.</t>
-  </si>
-  <si>
-    <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
-  </si>
-  <si>
-    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists.</t>
-  </si>
-  <si>
-    <t>If a section is empty, why it is empty.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
-  </si>
-  <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
   </si>
   <si>
@@ -1516,9 +1523,6 @@
   </si>
   <si>
     <t>Composition.section.section.text</t>
-  </si>
-  <si>
-    <t>Composition.section.section.mode</t>
   </si>
   <si>
     <t>Composition.section.section.orderedBy</t>
@@ -1841,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO75"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1874,7 +1878,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="62.890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -1886,10 +1890,10 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="73.69140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2696,7 +2700,7 @@
         <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>103</v>
@@ -2705,10 +2709,10 @@
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2719,14 +2723,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2745,16 +2749,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2804,7 +2808,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2813,7 +2817,7 @@
         <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>78</v>
@@ -2822,10 +2826,10 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2836,14 +2840,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2862,16 +2866,16 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2921,7 +2925,7 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2933,16 +2937,16 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -2953,14 +2957,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2979,19 +2983,19 @@
         <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -3040,7 +3044,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3052,16 +3056,16 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -3072,10 +3076,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3101,16 +3105,16 @@
         <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3159,7 +3163,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3177,7 +3181,7 @@
         <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>78</v>
@@ -3186,15 +3190,15 @@
         <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3217,16 +3221,16 @@
         <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3276,7 +3280,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3291,27 +3295,27 @@
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3337,10 +3341,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3391,7 +3395,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3400,7 +3404,7 @@
         <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3409,10 +3413,10 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3423,14 +3427,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3449,16 +3453,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3496,19 +3500,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3520,16 +3524,16 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3540,10 +3544,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3569,16 +3573,16 @@
         <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3603,11 +3607,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3625,7 +3631,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3643,10 +3649,10 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3657,10 +3663,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3683,19 +3689,19 @@
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3720,11 +3726,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3742,7 +3750,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3760,10 +3768,10 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3774,10 +3782,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3803,16 +3811,16 @@
         <v>105</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3825,7 +3833,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3861,7 +3869,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3879,10 +3887,10 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -3893,10 +3901,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3919,16 +3927,16 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3942,7 +3950,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -3978,7 +3986,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3987,7 +3995,7 @@
         <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>103</v>
@@ -3996,10 +4004,10 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4010,10 +4018,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4036,13 +4044,13 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4093,7 +4101,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4111,10 +4119,10 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4125,10 +4133,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4151,16 +4159,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4210,7 +4218,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4228,10 +4236,10 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4242,10 +4250,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4268,16 +4276,16 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4327,7 +4335,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4345,24 +4353,24 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4388,16 +4396,16 @@
         <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4422,31 +4430,31 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Z22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>91</v>
@@ -4461,27 +4469,27 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4504,19 +4512,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4541,11 +4549,11 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4563,7 +4571,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>91</v>
@@ -4578,27 +4586,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4621,17 +4629,17 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4656,31 +4664,31 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Z24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4698,24 +4706,24 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4738,19 +4746,19 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4799,7 +4807,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4814,27 +4822,27 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4857,17 +4865,17 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4916,7 +4924,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4931,27 +4939,27 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4974,19 +4982,19 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5035,7 +5043,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>91</v>
@@ -5050,27 +5058,27 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5093,19 +5101,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5154,7 +5162,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5186,10 +5194,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5212,17 +5220,17 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5271,7 +5279,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>91</v>
@@ -5286,27 +5294,27 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5329,19 +5337,19 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5390,7 +5398,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5422,10 +5430,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5448,16 +5456,16 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5507,7 +5515,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>91</v>
@@ -5525,24 +5533,24 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5565,16 +5573,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5624,7 +5632,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5656,10 +5664,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5682,19 +5690,19 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5743,7 +5751,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5761,24 +5769,24 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5801,13 +5809,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5858,7 +5866,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5867,7 +5875,7 @@
         <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5876,10 +5884,10 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5890,14 +5898,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5916,16 +5924,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5975,7 +5983,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5987,16 +5995,16 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6007,14 +6015,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6033,19 +6041,19 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6094,7 +6102,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6106,16 +6114,16 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6126,10 +6134,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6152,17 +6160,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6187,13 +6195,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6211,7 +6219,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
@@ -6229,24 +6237,24 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6269,17 +6277,17 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6328,7 +6336,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6346,24 +6354,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6386,17 +6394,17 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6445,7 +6453,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6463,24 +6471,24 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6503,19 +6511,19 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6564,7 +6572,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6582,24 +6590,24 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>366</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6622,16 +6630,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6681,7 +6689,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6699,24 +6707,24 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6739,19 +6747,19 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6800,7 +6808,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6818,13 +6826,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6832,10 +6840,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6858,13 +6866,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6915,7 +6923,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6924,7 +6932,7 @@
         <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -6933,10 +6941,10 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6947,14 +6955,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6973,16 +6981,16 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7032,7 +7040,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7044,16 +7052,16 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7064,14 +7072,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7090,19 +7098,19 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7151,7 +7159,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7163,16 +7171,16 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7183,10 +7191,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7197,7 +7205,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7209,17 +7217,15 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7244,13 +7250,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7268,13 +7274,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7286,24 +7292,24 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7314,7 +7320,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7326,15 +7332,17 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7359,13 +7367,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7383,13 +7391,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7401,24 +7409,24 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>398</v>
+        <v>170</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7426,7 +7434,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7438,16 +7446,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7498,7 +7506,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7510,19 +7518,19 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>167</v>
+        <v>414</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7530,10 +7538,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7541,11 +7549,11 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7556,13 +7564,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
+        <v>166</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>406</v>
+        <v>167</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7613,28 +7621,28 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>168</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>409</v>
+        <v>170</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7645,21 +7653,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7671,15 +7679,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7728,28 +7738,28 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7760,14 +7770,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7780,24 +7790,26 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7845,7 +7857,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7857,16 +7869,16 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7877,45 +7889,45 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>335</v>
+        <v>420</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
+        <v>422</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>140</v>
+        <v>423</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>146</v>
+        <v>424</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7964,31 +7976,31 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7996,18 +8008,18 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>91</v>
@@ -8022,19 +8034,19 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8059,13 +8071,11 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8083,7 +8093,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8101,13 +8111,13 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8115,10 +8125,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8126,10 +8136,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8141,19 +8151,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>184</v>
+        <v>432</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>423</v>
+        <v>306</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8178,11 +8186,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8200,13 +8210,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8218,13 +8228,13 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8232,10 +8242,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8246,7 +8256,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8258,18 +8268,18 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8317,13 +8327,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8335,24 +8345,24 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8375,16 +8385,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8434,7 +8444,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8443,7 +8453,7 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -8455,10 +8465,10 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8466,10 +8476,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8492,18 +8502,20 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8527,13 +8539,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8551,7 +8563,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8560,7 +8572,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -8569,13 +8581,13 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8583,10 +8595,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8597,7 +8609,7 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8609,20 +8621,18 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8646,13 +8656,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8670,16 +8680,16 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -8688,24 +8698,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>167</v>
+        <v>460</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8728,19 +8738,19 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8765,13 +8775,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8789,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8798,7 +8808,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -8807,13 +8817,13 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8821,10 +8831,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8847,16 +8857,16 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8906,7 +8916,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8915,7 +8925,7 @@
         <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>103</v>
@@ -8924,13 +8934,13 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -8938,10 +8948,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8964,20 +8974,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>464</v>
+        <v>166</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9001,13 +9007,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>468</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9025,7 +9031,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>168</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9034,19 +9040,19 @@
         <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9057,14 +9063,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9083,16 +9089,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>472</v>
+        <v>140</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>472</v>
+        <v>172</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>473</v>
+        <v>142</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9142,7 +9148,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>471</v>
+        <v>176</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9151,19 +9157,19 @@
         <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>474</v>
+        <v>170</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9174,42 +9180,46 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9257,28 +9267,28 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>166</v>
+        <v>344</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9289,21 +9299,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>136</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9315,18 +9325,20 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>138</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>169</v>
+        <v>422</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9374,31 +9386,31 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>173</v>
+        <v>419</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9406,45 +9418,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>146</v>
+        <v>429</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9469,13 +9481,11 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>430</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9493,31 +9503,31 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9525,21 +9535,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>414</v>
+        <v>78</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9551,19 +9561,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>418</v>
+        <v>306</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9612,13 +9620,13 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
@@ -9630,13 +9638,13 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -9644,10 +9652,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9655,7 +9663,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
@@ -9670,20 +9678,18 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>184</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9707,11 +9713,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9729,7 +9737,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9747,13 +9755,13 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>78</v>
+        <v>440</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -9761,10 +9769,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9775,7 +9783,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9787,18 +9795,18 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>426</v>
+        <v>121</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9846,16 +9854,16 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -9864,24 +9872,24 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9904,18 +9912,20 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>400</v>
+        <v>187</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9939,13 +9949,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9963,7 +9973,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9984,10 +9994,10 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -9995,10 +10005,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10009,7 +10019,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10021,16 +10031,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>121</v>
+        <v>436</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10080,16 +10090,16 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10098,13 +10108,13 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10112,10 +10122,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10138,19 +10148,19 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10175,13 +10185,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10199,7 +10209,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10208,7 +10218,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -10217,24 +10227,24 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>167</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10245,7 +10255,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10257,20 +10267,18 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>449</v>
+        <v>488</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10294,13 +10302,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10318,13 +10326,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10336,368 +10344,15 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>167</v>
+        <v>414</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO75" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-Composition-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-Composition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
